--- a/Data/P0/P0_HairCellBB_SegSchedule.xlsx
+++ b/Data/P0/P0_HairCellBB_SegSchedule.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Box Sync\Research\Projects\Vestibular Hair Cell Analysis\Ear-Cell-Analysis-Code\Data\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DF5BAB-F51C-4B18-86C9-891D630F8EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B50A1B-0EAF-4923-8007-A05B4BB2C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="1050" windowWidth="18495" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33105" yWindow="0" windowWidth="18495" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Operation</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -386,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -485,4 +489,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B334F445-15C1-4037-A18D-C86A7A75A7C9}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>